--- a/biology/Microbiologie/Certesia_quadrinucleata/Certesia_quadrinucleata.xlsx
+++ b/biology/Microbiologie/Certesia_quadrinucleata/Certesia_quadrinucleata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Certesia · Certesiidae
 Certesia quadrinucleata, unique représentant du genre Certesia et de la famille des Certesiidae, est une espèce de Ciliés de l’ordre des Euplotida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Certesia a été probablement donné en hommage au microbiologiste Adrien Certes (d) (1835-1903), qui fut président  de la Société Zoologique de France.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Certesia est un hypotriche marin de forme ovale ayant une bosse en forme de nez sur le bord antérieur droit du corps. Sur le côté gauche, cet organisme a une zone adorale de membranelles[note 1] bien visible qui s'étend sur une longueur allant du tiers à la moitié du corps. Des cirres sont situées sur la gauche du corps, en position et en nombre variables : de onze à treize fronto-ventraux, cinq grands transversaux et entre six et onze en bordure. Il n'y a pas de cirres caudaux. Le macronoyau est fractionné en un nombre variable de parties[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Certesia est un hypotriche marin de forme ovale ayant une bosse en forme de nez sur le bord antérieur droit du corps. Sur le côté gauche, cet organisme a une zone adorale de membranelles[note 1] bien visible qui s'étend sur une longueur allant du tiers à la moitié du corps. Des cirres sont situées sur la gauche du corps, en position et en nombre variables : de onze à treize fronto-ventraux, cinq grands transversaux et entre six et onze en bordure. Il n'y a pas de cirres caudaux. Le macronoyau est fractionné en un nombre variable de parties.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitet et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certesia est un organisme marin réparti de façon assez éparse à la surface du globe[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certesia est un organisme marin réparti de façon assez éparse à la surface du globe.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide de ce taxon est Certesia quadrinucleata, proposé par le naturaliste français Paul Louis Marie Fabre-Domergue en 1885. La famille monotypique des Certesiidae est attribuée à Arthur C. Borror (d) &amp; Bruce F. Hill (d) en 1995[3].
-Certesia quadrinucleata a pour synonyme[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide de ce taxon est Certesia quadrinucleata, proposé par le naturaliste français Paul Louis Marie Fabre-Domergue en 1885. La famille monotypique des Certesiidae est attribuée à Arthur C. Borror (d) &amp; Bruce F. Hill (d) en 1995.
+Certesia quadrinucleata a pour synonyme :
 Certesia ovata Vacelet, 1960</t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>P.L. Fabre-Domergue, 1885, « Note sur les infusoires ciliés de la Baie de Concarneau », Journal of anatomy and physiology, vol. 21, p. 554-568.</t>
         </is>
